--- a/Statics.xlsx
+++ b/Statics.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13440"/>
+    <workbookView windowWidth="28060" windowHeight="13440"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6">
   <si>
     <t>input size</t>
   </si>
@@ -22,7 +23,16 @@
     <t>Avg.(in n.s.)</t>
   </si>
   <si>
+    <t>Insertion</t>
+  </si>
+  <si>
     <t>intercept</t>
+  </si>
+  <si>
+    <t>assignment</t>
+  </si>
+  <si>
+    <t>Comparison</t>
   </si>
 </sst>
 </file>
@@ -1006,10 +1016,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="143" zoomScaleNormal="143" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1031,407 +1041,2027 @@
         <v>10</v>
       </c>
       <c r="B2" s="3">
-        <f>AVERAGE(C2,D2,E2,F2,G2,H2,I2,J2,K2,L2)</f>
-        <v>3629</v>
-      </c>
-      <c r="C2" s="3">
-        <v>3500</v>
-      </c>
-      <c r="D2" s="3">
-        <v>3792</v>
-      </c>
-      <c r="E2" s="3">
-        <v>3875</v>
-      </c>
-      <c r="F2" s="3">
-        <v>4083</v>
-      </c>
-      <c r="G2" s="3">
-        <v>3417</v>
-      </c>
-      <c r="H2" s="3">
-        <v>3416</v>
-      </c>
-      <c r="I2" s="3">
-        <v>3916</v>
-      </c>
-      <c r="J2" s="3">
-        <v>3416</v>
-      </c>
-      <c r="K2" s="3">
-        <v>3625</v>
-      </c>
-      <c r="L2" s="3">
-        <v>3250</v>
-      </c>
+        <f>AVERAGE(Sheet2!A:A)</f>
+        <v>1591.12745098039</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="2">
         <v>20</v>
       </c>
       <c r="B3" s="3">
-        <f>AVERAGE(C3,D3,E3,F3,G3,H3,I3,J3,K3,L3)</f>
-        <v>9208.3</v>
-      </c>
-      <c r="C3" s="3">
-        <v>8209</v>
-      </c>
-      <c r="D3" s="3">
-        <v>7209</v>
-      </c>
-      <c r="E3" s="3">
-        <v>7333</v>
-      </c>
-      <c r="F3" s="3">
-        <v>7417</v>
-      </c>
-      <c r="G3" s="3">
-        <v>7958</v>
-      </c>
-      <c r="H3" s="3">
-        <v>7833</v>
-      </c>
-      <c r="I3" s="3">
-        <v>9083</v>
-      </c>
-      <c r="J3" s="3">
-        <v>6833</v>
-      </c>
-      <c r="K3" s="3">
-        <v>6916</v>
-      </c>
-      <c r="L3" s="3">
-        <v>23292</v>
-      </c>
+        <f>AVERAGE(Sheet2!B:B)</f>
+        <v>4096.94059405941</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="2">
         <v>50</v>
       </c>
       <c r="B4" s="3">
-        <f>AVERAGE(C4,D4,E4,F4,G4,H4,I4,J4,K4,L4)</f>
-        <v>25058.5</v>
-      </c>
-      <c r="C4" s="3">
-        <v>21000</v>
-      </c>
-      <c r="D4" s="3">
-        <v>20917</v>
-      </c>
-      <c r="E4" s="3">
-        <v>31500</v>
-      </c>
-      <c r="F4" s="3">
-        <v>21208</v>
-      </c>
-      <c r="G4" s="3">
-        <v>30959</v>
-      </c>
-      <c r="H4" s="3">
-        <v>24834</v>
-      </c>
-      <c r="I4" s="3">
-        <v>22042</v>
-      </c>
-      <c r="J4" s="3">
-        <v>29166</v>
-      </c>
-      <c r="K4" s="3">
-        <v>27667</v>
-      </c>
-      <c r="L4" s="3">
-        <v>21292</v>
-      </c>
+        <f>AVERAGE(Sheet2!C:C)</f>
+        <v>21853.4117647059</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="2">
         <v>100</v>
       </c>
       <c r="B5" s="3">
-        <f>AVERAGE(C5,D5,E5,F5,G5,H5,I5,J5,K5,L5)</f>
-        <v>84283.4</v>
-      </c>
-      <c r="C5" s="3">
-        <v>80958</v>
-      </c>
-      <c r="D5" s="3">
-        <v>79042</v>
-      </c>
-      <c r="E5" s="3">
-        <v>88709</v>
-      </c>
-      <c r="F5" s="3">
-        <v>76625</v>
-      </c>
-      <c r="G5" s="3">
-        <v>88042</v>
-      </c>
-      <c r="H5" s="3">
-        <v>98500</v>
-      </c>
-      <c r="I5" s="3">
-        <v>76792</v>
-      </c>
-      <c r="J5" s="3">
-        <v>84083</v>
-      </c>
-      <c r="K5" s="3">
-        <v>92333</v>
-      </c>
-      <c r="L5" s="3">
-        <v>77750</v>
-      </c>
+        <f>AVERAGE(Sheet2!D:D)</f>
+        <v>85995.43</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="2">
         <v>200</v>
       </c>
       <c r="B6" s="3">
-        <f>AVERAGE(C6,D6,E6,F6,G6,H6,I6,J6,K6,L6)</f>
-        <v>351091.7</v>
-      </c>
-      <c r="C6" s="3">
-        <v>389500</v>
-      </c>
-      <c r="D6" s="3">
-        <v>285000</v>
-      </c>
-      <c r="E6" s="3">
-        <v>394500</v>
-      </c>
-      <c r="F6" s="3">
-        <v>372958</v>
-      </c>
-      <c r="G6" s="3">
-        <v>287500</v>
-      </c>
-      <c r="H6" s="3">
-        <v>324250</v>
-      </c>
-      <c r="I6" s="3">
-        <v>373542</v>
-      </c>
-      <c r="J6" s="3">
-        <v>316375</v>
-      </c>
-      <c r="K6" s="3">
-        <v>433542</v>
-      </c>
-      <c r="L6" s="3">
-        <v>333750</v>
-      </c>
+        <f>AVERAGE(Sheet2!E:E)</f>
+        <v>336953.441176471</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="2">
         <v>500</v>
       </c>
-      <c r="B7" s="3">
-        <f>AVERAGE(C7,D7,E7,F7,G7,H7,I7,J7,K7,L7)</f>
-        <v>2267962.7</v>
-      </c>
-      <c r="C7" s="3">
-        <v>1620500</v>
-      </c>
-      <c r="D7" s="3">
-        <v>2368709</v>
-      </c>
-      <c r="E7" s="3">
-        <v>2365458</v>
-      </c>
-      <c r="F7" s="3">
-        <v>2185291</v>
-      </c>
-      <c r="G7" s="3">
-        <v>2445291</v>
-      </c>
-      <c r="H7" s="3">
-        <v>2175542</v>
-      </c>
-      <c r="I7" s="3">
-        <v>2913459</v>
-      </c>
-      <c r="J7" s="3">
-        <v>1746584</v>
-      </c>
-      <c r="K7" s="3">
-        <v>2317459</v>
-      </c>
-      <c r="L7" s="3">
-        <v>2541334</v>
-      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="2">
         <v>1000</v>
       </c>
-      <c r="B8" s="3">
-        <f>AVERAGE(C8,D8,E8,F8,G8,H8,I8,J8,K8,L8)</f>
-        <v>3560695.8</v>
-      </c>
-      <c r="C8" s="3">
-        <v>3972667</v>
-      </c>
-      <c r="D8" s="3">
-        <v>4007833</v>
-      </c>
-      <c r="E8" s="3">
-        <v>3137084</v>
-      </c>
-      <c r="F8" s="3">
-        <v>3504541</v>
-      </c>
-      <c r="G8" s="3">
-        <v>3664708</v>
-      </c>
-      <c r="H8" s="3">
-        <v>3820583</v>
-      </c>
-      <c r="I8" s="3">
-        <v>3671417</v>
-      </c>
-      <c r="J8" s="3">
-        <v>3515917</v>
-      </c>
-      <c r="K8" s="3">
-        <v>3179750</v>
-      </c>
-      <c r="L8" s="3">
-        <v>3132458</v>
-      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="2">
         <v>2000</v>
       </c>
-      <c r="B9" s="3">
-        <f>AVERAGE(C9,D9,E9,F9,G9,H9,I9,J9,K9,L9)</f>
-        <v>5456470.9</v>
-      </c>
-      <c r="C9" s="3">
-        <v>5401458</v>
-      </c>
-      <c r="D9" s="3">
-        <v>5405917</v>
-      </c>
-      <c r="E9" s="3">
-        <v>5641959</v>
-      </c>
-      <c r="F9" s="3">
-        <v>5545875</v>
-      </c>
-      <c r="G9" s="3">
-        <v>5845959</v>
-      </c>
-      <c r="H9" s="3">
-        <v>4788750</v>
-      </c>
-      <c r="I9" s="3">
-        <v>5482125</v>
-      </c>
-      <c r="J9" s="3">
-        <v>5518125</v>
-      </c>
-      <c r="K9" s="3">
-        <v>5690833</v>
-      </c>
-      <c r="L9" s="3">
-        <v>5243708</v>
-      </c>
-    </row>
-    <row r="10" ht="14.75" spans="1:12">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="2">
         <v>5000</v>
       </c>
-      <c r="B10" s="3">
-        <f>AVERAGE(C10,D10,E10,F10,G10,H10,I10,J10,K10,L10)</f>
-        <v>11510654.1</v>
-      </c>
-      <c r="C10" s="3">
-        <v>9986167</v>
-      </c>
-      <c r="D10" s="3">
-        <v>10717292</v>
-      </c>
-      <c r="E10" s="3">
-        <v>13881250</v>
-      </c>
-      <c r="F10" s="3">
-        <v>10053958</v>
-      </c>
-      <c r="G10" s="3">
-        <v>13500292</v>
-      </c>
-      <c r="H10" s="3">
-        <v>9021416</v>
-      </c>
-      <c r="I10" s="3">
-        <v>9027458</v>
-      </c>
-      <c r="J10" s="3">
-        <v>9159542</v>
-      </c>
-      <c r="K10" s="3">
-        <v>14024958</v>
-      </c>
-      <c r="L10" s="3">
-        <v>15734208</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="2" t="s">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="3">
-        <f>AVERAGE(C11,D11,E11,F11,G11,H11,I11,J11,K11,L11)</f>
+    </row>
+    <row r="13" ht="14.75"/>
+    <row r="14" spans="1:12">
+      <c r="A14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="3">
+        <f>AVERAGE(C14,D14,E14,F14,G14,H14,I14,J14,K14,L14)</f>
         <v>129.1</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C14" s="3">
         <v>125</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D14" s="3">
         <v>167</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E14" s="3">
         <v>125</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F14" s="3">
         <v>125</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G14" s="3">
         <v>166</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H14" s="3">
         <v>125</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I14" s="3">
         <v>125</v>
       </c>
-      <c r="J11" s="3">
+      <c r="J14" s="3">
         <v>125</v>
       </c>
-      <c r="K11" s="3">
+      <c r="K14" s="3">
         <v>83</v>
       </c>
-      <c r="L11" s="3">
+      <c r="L14" s="3">
         <v>125</v>
       </c>
     </row>
-    <row r="12" ht="14.75" spans="1:12">
-      <c r="A12" s="2"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" ht="14.75" spans="1:1">
-      <c r="A13" s="2"/>
+    <row r="15" spans="1:12">
+      <c r="A15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="3">
+        <f>AVERAGE(C15,D15,E15,F15,G15,H15,I15,J15,K15,L15)</f>
+        <v>204.1</v>
+      </c>
+      <c r="C15" s="3">
+        <v>208</v>
+      </c>
+      <c r="D15" s="3">
+        <v>250</v>
+      </c>
+      <c r="E15" s="3">
+        <v>250</v>
+      </c>
+      <c r="F15" s="3">
+        <v>208</v>
+      </c>
+      <c r="G15" s="3">
+        <v>167</v>
+      </c>
+      <c r="H15" s="3">
+        <v>167</v>
+      </c>
+      <c r="I15" s="3">
+        <v>167</v>
+      </c>
+      <c r="J15" s="3">
+        <v>250</v>
+      </c>
+      <c r="K15" s="3">
+        <v>208</v>
+      </c>
+      <c r="L15" s="3">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="3">
+        <f>AVERAGE(C16,D16,E16,F16,G16,H16,I16,J16,K16,L16)</f>
+        <v>208.3</v>
+      </c>
+      <c r="C16" s="3">
+        <v>250</v>
+      </c>
+      <c r="D16" s="3">
+        <v>208</v>
+      </c>
+      <c r="E16" s="3">
+        <v>166</v>
+      </c>
+      <c r="F16" s="3">
+        <v>166</v>
+      </c>
+      <c r="G16" s="3">
+        <v>250</v>
+      </c>
+      <c r="H16" s="3">
+        <v>209</v>
+      </c>
+      <c r="I16" s="3">
+        <v>208</v>
+      </c>
+      <c r="J16" s="3">
+        <v>209</v>
+      </c>
+      <c r="K16" s="3">
+        <v>250</v>
+      </c>
+      <c r="L16" s="3">
+        <v>167</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:E102"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1">
+        <v>3541</v>
+      </c>
+      <c r="B1">
+        <v>4458</v>
+      </c>
+      <c r="C1">
+        <v>19875</v>
+      </c>
+      <c r="D1"/>
+      <c r="E1">
+        <v>283541</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>2584</v>
+      </c>
+      <c r="B2">
+        <v>2958</v>
+      </c>
+      <c r="C2">
+        <v>22625</v>
+      </c>
+      <c r="D2"/>
+      <c r="E2">
+        <v>286000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>1375</v>
+      </c>
+      <c r="B3">
+        <v>3083</v>
+      </c>
+      <c r="C3">
+        <v>19083</v>
+      </c>
+      <c r="D3">
+        <v>92500</v>
+      </c>
+      <c r="E3">
+        <v>279834</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>1167</v>
+      </c>
+      <c r="B4">
+        <v>4125</v>
+      </c>
+      <c r="C4">
+        <v>21500</v>
+      </c>
+      <c r="D4">
+        <v>88083</v>
+      </c>
+      <c r="E4">
+        <v>271500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>1500</v>
+      </c>
+      <c r="B5">
+        <v>4000</v>
+      </c>
+      <c r="C5">
+        <v>20459</v>
+      </c>
+      <c r="D5">
+        <v>80250</v>
+      </c>
+      <c r="E5">
+        <v>265500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>1125</v>
+      </c>
+      <c r="B6">
+        <v>4125</v>
+      </c>
+      <c r="C6">
+        <v>17584</v>
+      </c>
+      <c r="D6">
+        <v>78333</v>
+      </c>
+      <c r="E6">
+        <v>286625</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>1125</v>
+      </c>
+      <c r="B7">
+        <v>3000</v>
+      </c>
+      <c r="C7">
+        <v>20708</v>
+      </c>
+      <c r="D7">
+        <v>79250</v>
+      </c>
+      <c r="E7">
+        <v>295791</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>1167</v>
+      </c>
+      <c r="B8">
+        <v>3541</v>
+      </c>
+      <c r="C8">
+        <v>23833</v>
+      </c>
+      <c r="D8">
+        <v>93792</v>
+      </c>
+      <c r="E8">
+        <v>150459</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>2500</v>
+      </c>
+      <c r="B9">
+        <v>7834</v>
+      </c>
+      <c r="C9">
+        <v>16959</v>
+      </c>
+      <c r="D9">
+        <v>82458</v>
+      </c>
+      <c r="E9">
+        <v>355125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>1250</v>
+      </c>
+      <c r="B10">
+        <v>3375</v>
+      </c>
+      <c r="C10">
+        <v>21083</v>
+      </c>
+      <c r="D10">
+        <v>83500</v>
+      </c>
+      <c r="E10">
+        <v>326458</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>1792</v>
+      </c>
+      <c r="B11">
+        <v>5333</v>
+      </c>
+      <c r="C11">
+        <v>20416</v>
+      </c>
+      <c r="D11">
+        <v>81416</v>
+      </c>
+      <c r="E11">
+        <v>361292</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>1709</v>
+      </c>
+      <c r="B12">
+        <v>3750</v>
+      </c>
+      <c r="C12">
+        <v>19791</v>
+      </c>
+      <c r="D12">
+        <v>77917</v>
+      </c>
+      <c r="E12">
+        <v>339666</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>1125</v>
+      </c>
+      <c r="B13">
+        <v>3541</v>
+      </c>
+      <c r="C13">
+        <v>20834</v>
+      </c>
+      <c r="D13">
+        <v>98208</v>
+      </c>
+      <c r="E13">
+        <v>352709</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>2458</v>
+      </c>
+      <c r="B14">
+        <v>3834</v>
+      </c>
+      <c r="C14">
+        <v>21375</v>
+      </c>
+      <c r="D14">
+        <v>98083</v>
+      </c>
+      <c r="E14">
+        <v>881459</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>1666</v>
+      </c>
+      <c r="B15">
+        <v>3834</v>
+      </c>
+      <c r="C15">
+        <v>17375</v>
+      </c>
+      <c r="D15">
+        <v>87292</v>
+      </c>
+      <c r="E15">
+        <v>145792</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
+        <v>3167</v>
+      </c>
+      <c r="B16">
+        <v>4750</v>
+      </c>
+      <c r="C16">
+        <v>20458</v>
+      </c>
+      <c r="D16">
+        <v>75500</v>
+      </c>
+      <c r="E16">
+        <v>336208</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>1459</v>
+      </c>
+      <c r="B17">
+        <v>3875</v>
+      </c>
+      <c r="C17">
+        <v>18917</v>
+      </c>
+      <c r="D17">
+        <v>88334</v>
+      </c>
+      <c r="E17">
+        <v>310083</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <v>1375</v>
+      </c>
+      <c r="B18">
+        <v>4708</v>
+      </c>
+      <c r="C18">
+        <v>17584</v>
+      </c>
+      <c r="D18">
+        <v>84750</v>
+      </c>
+      <c r="E18">
+        <v>322500</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <v>1333</v>
+      </c>
+      <c r="B19">
+        <v>4875</v>
+      </c>
+      <c r="C19">
+        <v>18584</v>
+      </c>
+      <c r="D19">
+        <v>83042</v>
+      </c>
+      <c r="E19">
+        <v>347250</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
+        <v>1500</v>
+      </c>
+      <c r="B20">
+        <v>4708</v>
+      </c>
+      <c r="C20">
+        <v>18000</v>
+      </c>
+      <c r="D20">
+        <v>79792</v>
+      </c>
+      <c r="E20">
+        <v>334625</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <v>1167</v>
+      </c>
+      <c r="B21">
+        <v>4083</v>
+      </c>
+      <c r="C21">
+        <v>17959</v>
+      </c>
+      <c r="D21">
+        <v>84792</v>
+      </c>
+      <c r="E21">
+        <v>398125</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22">
+        <v>1250</v>
+      </c>
+      <c r="B22">
+        <v>4167</v>
+      </c>
+      <c r="C22">
+        <v>18667</v>
+      </c>
+      <c r="D22">
+        <v>84250</v>
+      </c>
+      <c r="E22">
+        <v>360500</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23">
+        <v>1834</v>
+      </c>
+      <c r="B23">
+        <v>3709</v>
+      </c>
+      <c r="C23">
+        <v>18000</v>
+      </c>
+      <c r="D23">
+        <v>112291</v>
+      </c>
+      <c r="E23">
+        <v>231625</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24">
+        <v>1125</v>
+      </c>
+      <c r="B24">
+        <v>3250</v>
+      </c>
+      <c r="C24">
+        <v>22375</v>
+      </c>
+      <c r="D24">
+        <v>92875</v>
+      </c>
+      <c r="E24">
+        <v>297666</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25">
+        <v>1500</v>
+      </c>
+      <c r="B25">
+        <v>3583</v>
+      </c>
+      <c r="C25">
+        <v>18458</v>
+      </c>
+      <c r="D25">
+        <v>101125</v>
+      </c>
+      <c r="E25">
+        <v>318084</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26">
+        <v>1250</v>
+      </c>
+      <c r="B26">
+        <v>4250</v>
+      </c>
+      <c r="C26">
+        <v>19625</v>
+      </c>
+      <c r="D26">
+        <v>104083</v>
+      </c>
+      <c r="E26">
+        <v>281500</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27">
+        <v>1459</v>
+      </c>
+      <c r="B27">
+        <v>4750</v>
+      </c>
+      <c r="C27">
+        <v>17500</v>
+      </c>
+      <c r="D27">
+        <v>125500</v>
+      </c>
+      <c r="E27">
+        <v>271250</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28">
+        <v>1208</v>
+      </c>
+      <c r="B28">
+        <v>4959</v>
+      </c>
+      <c r="C28">
+        <v>16875</v>
+      </c>
+      <c r="D28">
+        <v>109666</v>
+      </c>
+      <c r="E28">
+        <v>291834</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29">
+        <v>1167</v>
+      </c>
+      <c r="B29">
+        <v>4583</v>
+      </c>
+      <c r="C29">
+        <v>27292</v>
+      </c>
+      <c r="D29">
+        <v>110542</v>
+      </c>
+      <c r="E29">
+        <v>313542</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30">
+        <v>1250</v>
+      </c>
+      <c r="B30">
+        <v>4500</v>
+      </c>
+      <c r="C30">
+        <v>24083</v>
+      </c>
+      <c r="D30">
+        <v>95584</v>
+      </c>
+      <c r="E30">
+        <v>313542</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31">
+        <v>1166</v>
+      </c>
+      <c r="B31">
+        <v>3583</v>
+      </c>
+      <c r="C31">
+        <v>19625</v>
+      </c>
+      <c r="D31">
+        <v>108166</v>
+      </c>
+      <c r="E31">
+        <v>456083</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32">
+        <v>1666</v>
+      </c>
+      <c r="B32">
+        <v>3958</v>
+      </c>
+      <c r="C32">
+        <v>23042</v>
+      </c>
+      <c r="D32">
+        <v>102083</v>
+      </c>
+      <c r="E32">
+        <v>341333</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33">
+        <v>4750</v>
+      </c>
+      <c r="B33">
+        <v>3375</v>
+      </c>
+      <c r="C33">
+        <v>21417</v>
+      </c>
+      <c r="D33">
+        <v>86500</v>
+      </c>
+      <c r="E33">
+        <v>337625</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34">
+        <v>1417</v>
+      </c>
+      <c r="B34">
+        <v>4500</v>
+      </c>
+      <c r="C34">
+        <v>18167</v>
+      </c>
+      <c r="D34">
+        <v>93625</v>
+      </c>
+      <c r="E34">
+        <v>365250</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35">
+        <v>1583</v>
+      </c>
+      <c r="B35">
+        <v>3041</v>
+      </c>
+      <c r="C35">
+        <v>21042</v>
+      </c>
+      <c r="D35">
+        <v>80834</v>
+      </c>
+      <c r="E35">
+        <v>324917</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36">
+        <v>1209</v>
+      </c>
+      <c r="B36">
+        <v>6250</v>
+      </c>
+      <c r="C36">
+        <v>21000</v>
+      </c>
+      <c r="D36">
+        <v>87875</v>
+      </c>
+      <c r="E36">
+        <v>332792</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37">
+        <v>1625</v>
+      </c>
+      <c r="B37">
+        <v>4500</v>
+      </c>
+      <c r="C37">
+        <v>21208</v>
+      </c>
+      <c r="D37">
+        <v>94917</v>
+      </c>
+      <c r="E37">
+        <v>679958</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38">
+        <v>1333</v>
+      </c>
+      <c r="B38">
+        <v>5542</v>
+      </c>
+      <c r="C38">
+        <v>17417</v>
+      </c>
+      <c r="D38">
+        <v>88958</v>
+      </c>
+      <c r="E38">
+        <v>286250</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39">
+        <v>1625</v>
+      </c>
+      <c r="B39">
+        <v>4083</v>
+      </c>
+      <c r="C39">
+        <v>20041</v>
+      </c>
+      <c r="D39">
+        <v>79417</v>
+      </c>
+      <c r="E39">
+        <v>122208</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40">
+        <v>1459</v>
+      </c>
+      <c r="B40">
+        <v>3500</v>
+      </c>
+      <c r="C40">
+        <v>20250</v>
+      </c>
+      <c r="D40">
+        <v>85250</v>
+      </c>
+      <c r="E40">
+        <v>329791</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41">
+        <v>959</v>
+      </c>
+      <c r="B41">
+        <v>4458</v>
+      </c>
+      <c r="C41">
+        <v>26750</v>
+      </c>
+      <c r="D41">
+        <v>83459</v>
+      </c>
+      <c r="E41">
+        <v>346042</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42">
+        <v>1125</v>
+      </c>
+      <c r="B42">
+        <v>3583</v>
+      </c>
+      <c r="C42">
+        <v>18709</v>
+      </c>
+      <c r="D42">
+        <v>93958</v>
+      </c>
+      <c r="E42">
+        <v>331292</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43">
+        <v>1458</v>
+      </c>
+      <c r="B43">
+        <v>3417</v>
+      </c>
+      <c r="C43">
+        <v>21292</v>
+      </c>
+      <c r="D43">
+        <v>101000</v>
+      </c>
+      <c r="E43">
+        <v>315833</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44">
+        <v>1459</v>
+      </c>
+      <c r="B44">
+        <v>4375</v>
+      </c>
+      <c r="C44">
+        <v>20375</v>
+      </c>
+      <c r="D44">
+        <v>83334</v>
+      </c>
+      <c r="E44">
+        <v>329375</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45">
+        <v>1500</v>
+      </c>
+      <c r="B45">
+        <v>3458</v>
+      </c>
+      <c r="C45">
+        <v>19417</v>
+      </c>
+      <c r="D45">
+        <v>91792</v>
+      </c>
+      <c r="E45">
+        <v>310208</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46">
+        <v>1417</v>
+      </c>
+      <c r="B46">
+        <v>3209</v>
+      </c>
+      <c r="C46">
+        <v>20209</v>
+      </c>
+      <c r="D46">
+        <v>90167</v>
+      </c>
+      <c r="E46">
+        <v>310125</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47">
+        <v>1250</v>
+      </c>
+      <c r="B47">
+        <v>2917</v>
+      </c>
+      <c r="C47">
+        <v>20375</v>
+      </c>
+      <c r="D47">
+        <v>94542</v>
+      </c>
+      <c r="E47">
+        <v>49417</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48">
+        <v>1250</v>
+      </c>
+      <c r="B48">
+        <v>4167</v>
+      </c>
+      <c r="C48">
+        <v>19375</v>
+      </c>
+      <c r="D48">
+        <v>87667</v>
+      </c>
+      <c r="E48">
+        <v>268000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49">
+        <v>1500</v>
+      </c>
+      <c r="B49"/>
+      <c r="C49">
+        <v>20416</v>
+      </c>
+      <c r="D49">
+        <v>87750</v>
+      </c>
+      <c r="E49">
+        <v>278833</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50">
+        <v>1500</v>
+      </c>
+      <c r="B50">
+        <v>3750</v>
+      </c>
+      <c r="C50">
+        <v>17250</v>
+      </c>
+      <c r="D50">
+        <v>88166</v>
+      </c>
+      <c r="E50">
+        <v>266375</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51">
+        <v>1542</v>
+      </c>
+      <c r="B51">
+        <v>4708</v>
+      </c>
+      <c r="C51">
+        <v>20708</v>
+      </c>
+      <c r="D51">
+        <v>85084</v>
+      </c>
+      <c r="E51">
+        <v>284458</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52">
+        <v>1333</v>
+      </c>
+      <c r="B52">
+        <v>4667</v>
+      </c>
+      <c r="C52">
+        <v>19375</v>
+      </c>
+      <c r="D52">
+        <v>87708</v>
+      </c>
+      <c r="E52">
+        <v>280375</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53">
+        <v>1500</v>
+      </c>
+      <c r="B53">
+        <v>4042</v>
+      </c>
+      <c r="C53">
+        <v>19208</v>
+      </c>
+      <c r="D53">
+        <v>81000</v>
+      </c>
+      <c r="E53">
+        <v>287125</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54">
+        <v>1292</v>
+      </c>
+      <c r="B54">
+        <v>4166</v>
+      </c>
+      <c r="C54">
+        <v>19250</v>
+      </c>
+      <c r="D54">
+        <v>76292</v>
+      </c>
+      <c r="E54">
+        <v>274500</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55">
+        <v>1708</v>
+      </c>
+      <c r="B55">
+        <v>4250</v>
+      </c>
+      <c r="C55">
+        <v>19458</v>
+      </c>
+      <c r="D55">
+        <v>77417</v>
+      </c>
+      <c r="E55">
+        <v>261167</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56">
+        <v>2584</v>
+      </c>
+      <c r="B56">
+        <v>4084</v>
+      </c>
+      <c r="C56">
+        <v>19041</v>
+      </c>
+      <c r="D56">
+        <v>81000</v>
+      </c>
+      <c r="E56">
+        <v>275167</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57">
+        <v>1959</v>
+      </c>
+      <c r="B57">
+        <v>3833</v>
+      </c>
+      <c r="C57">
+        <v>17833</v>
+      </c>
+      <c r="D57">
+        <v>87333</v>
+      </c>
+      <c r="E57">
+        <v>354417</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58">
+        <v>1541</v>
+      </c>
+      <c r="B58">
+        <v>4000</v>
+      </c>
+      <c r="C58">
+        <v>19667</v>
+      </c>
+      <c r="D58">
+        <v>64250</v>
+      </c>
+      <c r="E58">
+        <v>291208</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59">
+        <v>1416</v>
+      </c>
+      <c r="B59">
+        <v>3792</v>
+      </c>
+      <c r="C59">
+        <v>19208</v>
+      </c>
+      <c r="D59">
+        <v>77125</v>
+      </c>
+      <c r="E59">
+        <v>297333</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60">
+        <v>1375</v>
+      </c>
+      <c r="B60">
+        <v>3750</v>
+      </c>
+      <c r="C60">
+        <v>20459</v>
+      </c>
+      <c r="D60">
+        <v>83959</v>
+      </c>
+      <c r="E60">
+        <v>289917</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61">
+        <v>2333</v>
+      </c>
+      <c r="B61">
+        <v>3958</v>
+      </c>
+      <c r="C61">
+        <v>21667</v>
+      </c>
+      <c r="D61">
+        <v>80167</v>
+      </c>
+      <c r="E61">
+        <v>290250</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62">
+        <v>1625</v>
+      </c>
+      <c r="B62">
+        <v>4416</v>
+      </c>
+      <c r="C62">
+        <v>17709</v>
+      </c>
+      <c r="D62">
+        <v>76750</v>
+      </c>
+      <c r="E62">
+        <v>271542</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63">
+        <v>1292</v>
+      </c>
+      <c r="B63">
+        <v>3084</v>
+      </c>
+      <c r="C63">
+        <v>19208</v>
+      </c>
+      <c r="D63">
+        <v>80958</v>
+      </c>
+      <c r="E63">
+        <v>254250</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64">
+        <v>2167</v>
+      </c>
+      <c r="B64">
+        <v>4584</v>
+      </c>
+      <c r="C64">
+        <v>64208</v>
+      </c>
+      <c r="D64">
+        <v>79375</v>
+      </c>
+      <c r="E64">
+        <v>337250</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65">
+        <v>1500</v>
+      </c>
+      <c r="B65">
+        <v>3750</v>
+      </c>
+      <c r="C65">
+        <v>57709</v>
+      </c>
+      <c r="D65">
+        <v>90667</v>
+      </c>
+      <c r="E65">
+        <v>361167</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66">
+        <v>1291</v>
+      </c>
+      <c r="B66">
+        <v>4708</v>
+      </c>
+      <c r="C66">
+        <v>21833</v>
+      </c>
+      <c r="D66">
+        <v>76916</v>
+      </c>
+      <c r="E66">
+        <v>348791</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67">
+        <v>1250</v>
+      </c>
+      <c r="B67">
+        <v>4333</v>
+      </c>
+      <c r="C67">
+        <v>23500</v>
+      </c>
+      <c r="D67">
+        <v>71500</v>
+      </c>
+      <c r="E67">
+        <v>387917</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68">
+        <v>1292</v>
+      </c>
+      <c r="B68">
+        <v>3792</v>
+      </c>
+      <c r="C68">
+        <v>22167</v>
+      </c>
+      <c r="D68">
+        <v>76875</v>
+      </c>
+      <c r="E68">
+        <v>347792</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69">
+        <v>1375</v>
+      </c>
+      <c r="B69">
+        <v>3583</v>
+      </c>
+      <c r="C69">
+        <v>21500</v>
+      </c>
+      <c r="D69">
+        <v>78375</v>
+      </c>
+      <c r="E69">
+        <v>818834</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70">
+        <v>1250</v>
+      </c>
+      <c r="B70">
+        <v>3333</v>
+      </c>
+      <c r="C70">
+        <v>20542</v>
+      </c>
+      <c r="D70">
+        <v>76667</v>
+      </c>
+      <c r="E70">
+        <v>302208</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71">
+        <v>1416</v>
+      </c>
+      <c r="B71">
+        <v>3333</v>
+      </c>
+      <c r="C71">
+        <v>20042</v>
+      </c>
+      <c r="D71">
+        <v>89292</v>
+      </c>
+      <c r="E71">
+        <v>63625</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72">
+        <v>1334</v>
+      </c>
+      <c r="B72">
+        <v>5667</v>
+      </c>
+      <c r="C72">
+        <v>19125</v>
+      </c>
+      <c r="D72">
+        <v>83875</v>
+      </c>
+      <c r="E72">
+        <v>349500</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73">
+        <v>1250</v>
+      </c>
+      <c r="B73">
+        <v>3625</v>
+      </c>
+      <c r="C73">
+        <v>16167</v>
+      </c>
+      <c r="D73">
+        <v>90458</v>
+      </c>
+      <c r="E73">
+        <v>369583</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74">
+        <v>1083</v>
+      </c>
+      <c r="B74">
+        <v>3125</v>
+      </c>
+      <c r="C74">
+        <v>18875</v>
+      </c>
+      <c r="D74">
+        <v>94791</v>
+      </c>
+      <c r="E74">
+        <v>359667</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75">
+        <v>1333</v>
+      </c>
+      <c r="B75">
+        <v>4458</v>
+      </c>
+      <c r="C75">
+        <v>16250</v>
+      </c>
+      <c r="D75">
+        <v>96834</v>
+      </c>
+      <c r="E75">
+        <v>380458</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76">
+        <v>1125</v>
+      </c>
+      <c r="B76">
+        <v>3375</v>
+      </c>
+      <c r="C76">
+        <v>21500</v>
+      </c>
+      <c r="D76">
+        <v>81041</v>
+      </c>
+      <c r="E76">
+        <v>357916</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77">
+        <v>1625</v>
+      </c>
+      <c r="B77">
+        <v>3834</v>
+      </c>
+      <c r="C77">
+        <v>19875</v>
+      </c>
+      <c r="D77">
+        <v>83250</v>
+      </c>
+      <c r="E77">
+        <v>759209</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78">
+        <v>1375</v>
+      </c>
+      <c r="B78">
+        <v>5542</v>
+      </c>
+      <c r="C78">
+        <v>18792</v>
+      </c>
+      <c r="D78">
+        <v>76000</v>
+      </c>
+      <c r="E78">
+        <v>208750</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79">
+        <v>1250</v>
+      </c>
+      <c r="B79">
+        <v>3250</v>
+      </c>
+      <c r="C79">
+        <v>18125</v>
+      </c>
+      <c r="D79">
+        <v>77000</v>
+      </c>
+      <c r="E79">
+        <v>64708</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80">
+        <v>2041</v>
+      </c>
+      <c r="B80">
+        <v>3959</v>
+      </c>
+      <c r="C80">
+        <v>18084</v>
+      </c>
+      <c r="D80">
+        <v>79709</v>
+      </c>
+      <c r="E80">
+        <v>395417</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81">
+        <v>2083</v>
+      </c>
+      <c r="B81">
+        <v>3875</v>
+      </c>
+      <c r="C81">
+        <v>21833</v>
+      </c>
+      <c r="D81">
+        <v>91917</v>
+      </c>
+      <c r="E81">
+        <v>469083</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82">
+        <v>1750</v>
+      </c>
+      <c r="B82">
+        <v>3541</v>
+      </c>
+      <c r="C82">
+        <v>19250</v>
+      </c>
+      <c r="D82">
+        <v>82375</v>
+      </c>
+      <c r="E82">
+        <v>379667</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83">
+        <v>1542</v>
+      </c>
+      <c r="B83">
+        <v>3000</v>
+      </c>
+      <c r="C83">
+        <v>18583</v>
+      </c>
+      <c r="D83">
+        <v>94583</v>
+      </c>
+      <c r="E83">
+        <v>408958</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84">
+        <v>1375</v>
+      </c>
+      <c r="B84">
+        <v>2584</v>
+      </c>
+      <c r="C84">
+        <v>20125</v>
+      </c>
+      <c r="D84">
+        <v>75250</v>
+      </c>
+      <c r="E84">
+        <v>391375</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85">
+        <v>1916</v>
+      </c>
+      <c r="B85">
+        <v>2875</v>
+      </c>
+      <c r="C85">
+        <v>17292</v>
+      </c>
+      <c r="D85">
+        <v>74500</v>
+      </c>
+      <c r="E85">
+        <v>387375</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86">
+        <v>1459</v>
+      </c>
+      <c r="B86">
+        <v>3375</v>
+      </c>
+      <c r="C86">
+        <v>20125</v>
+      </c>
+      <c r="D86">
+        <v>74000</v>
+      </c>
+      <c r="E86">
+        <v>1073792</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87">
+        <v>1084</v>
+      </c>
+      <c r="B87">
+        <v>3500</v>
+      </c>
+      <c r="C87">
+        <v>18958</v>
+      </c>
+      <c r="D87">
+        <v>80958</v>
+      </c>
+      <c r="E87">
+        <v>149083</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88">
+        <v>1250</v>
+      </c>
+      <c r="B88">
+        <v>5166</v>
+      </c>
+      <c r="C88">
+        <v>17583</v>
+      </c>
+      <c r="D88">
+        <v>79834</v>
+      </c>
+      <c r="E88">
+        <v>308333</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89">
+        <v>1375</v>
+      </c>
+      <c r="B89">
+        <v>3708</v>
+      </c>
+      <c r="C89">
+        <v>18792</v>
+      </c>
+      <c r="D89">
+        <v>79958</v>
+      </c>
+      <c r="E89">
+        <v>310167</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90">
+        <v>1250</v>
+      </c>
+      <c r="B90">
+        <v>3250</v>
+      </c>
+      <c r="C90">
+        <v>19125</v>
+      </c>
+      <c r="D90">
+        <v>70458</v>
+      </c>
+      <c r="E90">
+        <v>300875</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91">
+        <v>1458</v>
+      </c>
+      <c r="B91">
+        <v>4083</v>
+      </c>
+      <c r="C91">
+        <v>18459</v>
+      </c>
+      <c r="D91">
+        <v>72333</v>
+      </c>
+      <c r="E91">
+        <v>302917</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92">
+        <v>1250</v>
+      </c>
+      <c r="B92">
+        <v>3542</v>
+      </c>
+      <c r="C92">
+        <v>19209</v>
+      </c>
+      <c r="D92">
+        <v>77958</v>
+      </c>
+      <c r="E92">
+        <v>297458</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93">
+        <v>1459</v>
+      </c>
+      <c r="B93">
+        <v>4000</v>
+      </c>
+      <c r="C93">
+        <v>18625</v>
+      </c>
+      <c r="D93">
+        <v>90416</v>
+      </c>
+      <c r="E93">
+        <v>977542</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94">
+        <v>1125</v>
+      </c>
+      <c r="B94">
+        <v>3542</v>
+      </c>
+      <c r="C94">
+        <v>20833</v>
+      </c>
+      <c r="D94">
+        <v>77000</v>
+      </c>
+      <c r="E94">
+        <v>219500</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95">
+        <v>1542</v>
+      </c>
+      <c r="B95">
+        <v>3375</v>
+      </c>
+      <c r="C95">
+        <v>19292</v>
+      </c>
+      <c r="D95">
+        <v>85750</v>
+      </c>
+      <c r="E95">
+        <v>48708</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96">
+        <v>1625</v>
+      </c>
+      <c r="B96">
+        <v>4500</v>
+      </c>
+      <c r="C96">
+        <v>71042</v>
+      </c>
+      <c r="D96">
+        <v>84750</v>
+      </c>
+      <c r="E96">
+        <v>362167</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97">
+        <v>2583</v>
+      </c>
+      <c r="B97">
+        <v>4875</v>
+      </c>
+      <c r="C97">
+        <v>22083</v>
+      </c>
+      <c r="D97">
+        <v>95334</v>
+      </c>
+      <c r="E97">
+        <v>351750</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98">
+        <v>1500</v>
+      </c>
+      <c r="B98">
+        <v>7458</v>
+      </c>
+      <c r="C98">
+        <v>52167</v>
+      </c>
+      <c r="D98">
+        <v>88625</v>
+      </c>
+      <c r="E98">
+        <v>376042</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99">
+        <v>1459</v>
+      </c>
+      <c r="B99">
+        <v>5834</v>
+      </c>
+      <c r="C99">
+        <v>46166</v>
+      </c>
+      <c r="D99">
+        <v>83208</v>
+      </c>
+      <c r="E99">
+        <v>328708</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100">
+        <v>1833</v>
+      </c>
+      <c r="B100">
+        <v>5375</v>
+      </c>
+      <c r="C100">
+        <v>20250</v>
+      </c>
+      <c r="D100">
+        <v>88875</v>
+      </c>
+      <c r="E100">
+        <v>355250</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101">
+        <v>4000</v>
+      </c>
+      <c r="B101">
+        <v>4792</v>
+      </c>
+      <c r="C101">
+        <v>26667</v>
+      </c>
+      <c r="D101">
+        <v>72833</v>
+      </c>
+      <c r="E101">
+        <v>495167</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102">
+        <v>2541</v>
+      </c>
+      <c r="B102">
+        <v>5333</v>
+      </c>
+      <c r="C102">
+        <v>26250</v>
+      </c>
+      <c r="D102">
+        <v>74292</v>
+      </c>
+      <c r="E102">
+        <v>159041</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
